--- a/DDAf_2024_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60C34C9-1267-4EE9-9E41-0CB824ACE9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65BEB7E6-981F-4837-83AE-E5A65826EB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3006AD90-F5E9-42F6-B527-B0F510D3E6E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D72FAF86-5610-46E0-8BDF-04FCD38A839B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -1611,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CFA594-B83E-4296-A710-3C9D52DD8BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0E885A-7AD5-4C8B-89DF-07D54A1FB6F0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1619,15 +1619,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1643,7 +1643,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>34</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0.40011111111110997</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>34</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>59</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>69</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
         <v>34</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0.41727272727273002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>84</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>90</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>92</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="42" t="s">
         <v>34</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0.51959999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>99</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>101</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>107</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>109</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>113</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>115</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>117</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>119</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>121</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>123</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>125</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
         <v>34</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0.33621428571429002</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="76" t="s">
         <v>34</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0.39387234042552999</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="76" t="s">
         <v>34</v>
       </c>
@@ -4170,10 +4170,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I63" s="90">
-        <v>34.567010309278302</v>
+        <v>34.550515463917499</v>
       </c>
       <c r="J63" s="88">
-        <v>2.1690721649484499</v>
+        <v>2.1649484536082499</v>
       </c>
       <c r="K63" s="88">
         <v>0.78188970588234996</v>
@@ -4185,7 +4185,7 @@
         <v>0.68614018691588996</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="s">
         <v>34</v>
       </c>
@@ -4211,10 +4211,10 @@
         <v>5.5249252851337998</v>
       </c>
       <c r="I64" s="99">
-        <v>44.280952380952399</v>
+        <v>44.185714285714297</v>
       </c>
       <c r="J64" s="97">
-        <v>2.6285714285714299</v>
+        <v>2.6380952380952398</v>
       </c>
       <c r="K64" s="97">
         <v>0.74048484848484997</v>
@@ -4226,7 +4226,7 @@
         <v>0.58467999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>34</v>
       </c>
@@ -4252,10 +4252,10 @@
         <v>0.22785476224234</v>
       </c>
       <c r="I65" s="106">
-        <v>33.654545454545499</v>
+        <v>33.6727272727273</v>
       </c>
       <c r="J65" s="104">
-        <v>5.3772727272727296</v>
+        <v>5.35</v>
       </c>
       <c r="K65" s="104">
         <v>0.67203448275861999</v>
@@ -4267,7 +4267,7 @@
         <v>0.55117391304347996</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="93" t="s">
         <v>34</v>
       </c>
@@ -4293,10 +4293,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I66" s="114">
-        <v>36.569230769230799</v>
+        <v>36.558041958041997</v>
       </c>
       <c r="J66" s="112">
-        <v>10.8118881118881</v>
+        <v>10.8090909090909</v>
       </c>
       <c r="K66" s="112">
         <v>0.71938095238095001</v>
@@ -4308,7 +4308,7 @@
         <v>0.59694155844156005</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="s">
         <v>34</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0.43094117647058999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="s">
         <v>34</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0.35780952380952002</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="s">
         <v>34</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0.36142857142856999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="s">
         <v>34</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0.38250000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="s">
         <v>34</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0.33621428571429002</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="s">
         <v>34</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.35320000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="s">
         <v>34</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0.42426666666667001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="s">
         <v>34</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0.51975000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="93" t="s">
         <v>34</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="s">
         <v>34</v>
       </c>
@@ -4703,10 +4703,10 @@
         <v>3.7125000000000101</v>
       </c>
       <c r="I76" s="122">
-        <v>37.1142857142857</v>
+        <v>37.171428571428599</v>
       </c>
       <c r="J76" s="120">
-        <v>2.22857142857143</v>
+        <v>2.1428571428571401</v>
       </c>
       <c r="K76" s="120">
         <v>0.72629999999999995</v>
@@ -4718,7 +4718,7 @@
         <v>0.60028571428570998</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="s">
         <v>34</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0.61683333333333001</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="s">
         <v>34</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0.82674074074074</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="s">
         <v>34</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0.82173684210525999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="s">
         <v>34</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.41085714285713998</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="s">
         <v>34</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="s">
         <v>34</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0.39090000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="93" t="s">
         <v>34</v>
       </c>
@@ -4990,10 +4990,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I83" s="90">
-        <v>34.647126436781598</v>
+        <v>34.628735632183897</v>
       </c>
       <c r="J83" s="88">
-        <v>1.82643678160919</v>
+        <v>1.8218390804597699</v>
       </c>
       <c r="K83" s="88">
         <v>0.78688596491228002</v>
@@ -5005,7 +5005,7 @@
         <v>0.70046236559139996</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="s">
         <v>34</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0.32414999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="s">
         <v>34</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="s">
         <v>34</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0.42159090909091002</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="s">
         <v>34</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0.53349999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="s">
         <v>34</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0.52324999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="s">
         <v>34</v>
       </c>
@@ -5236,10 +5236,10 @@
         <v>0.22785476224234</v>
       </c>
       <c r="I89" s="106">
-        <v>37.840000000000003</v>
+        <v>37.851428571428599</v>
       </c>
       <c r="J89" s="104">
-        <v>1.51428571428572</v>
+        <v>1.49714285714286</v>
       </c>
       <c r="K89" s="104">
         <v>0.75495555555556004</v>
@@ -5251,7 +5251,7 @@
         <v>0.64210810810811003</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="93" t="s">
         <v>34</v>
       </c>
@@ -5277,10 +5277,10 @@
         <v>4.12826963973865</v>
       </c>
       <c r="I90" s="114">
-        <v>31.98</v>
+        <v>31.93</v>
       </c>
       <c r="J90" s="112">
-        <v>0.29749999999999999</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="K90" s="112">
         <v>0.88356896551723996</v>
@@ -5292,7 +5292,7 @@
         <v>0.81371111111111005</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="s">
         <v>34</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0.34196666666667003</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="s">
         <v>34</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>0.44677777777777999</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="s">
         <v>34</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0.48920000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="s">
         <v>34</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0.56212499999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="s">
         <v>34</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0.3412</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="93" t="s">
         <v>34</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0.60885714285713999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="s">
         <v>34</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="93" t="s">
         <v>34</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0.50838461538461999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="126"/>
       <c r="B99" s="127"/>
       <c r="C99" s="86"/>
@@ -5635,7 +5635,7 @@
       <c r="L99" s="86"/>
       <c r="M99" s="86"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="L100" s="128"/>
       <c r="M100" s="128"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="L101" s="128"/>
       <c r="M101" s="128"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -5683,7 +5683,7 @@
       <c r="L102" s="128"/>
       <c r="M102" s="128"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="L103" s="128"/>
       <c r="M103" s="128"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="L104" s="128"/>
       <c r="M104" s="128"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>168</v>
       </c>
@@ -5731,7 +5731,7 @@
       <c r="L105" s="128"/>
       <c r="M105" s="128"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C106" s="128"/>
       <c r="D106" s="128"/>
       <c r="E106" s="128"/>
@@ -5744,7 +5744,7 @@
       <c r="L106" s="128"/>
       <c r="M106" s="128"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="129" t="s">
         <v>169</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="L107" s="128"/>
       <c r="M107" s="128"/>
     </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="129"/>
       <c r="C108" s="128"/>
       <c r="D108" s="128"/>
@@ -5774,7 +5774,7 @@
       <c r="L108" s="128"/>
       <c r="M108" s="128"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="L109" s="128"/>
       <c r="M109" s="128"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="L110" s="128"/>
       <c r="M110" s="128"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="131" t="s">
         <v>173</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="L111" s="128"/>
       <c r="M111" s="128"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>170</v>
       </c>
@@ -5838,7 +5838,7 @@
       <c r="L112" s="128"/>
       <c r="M112" s="128"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="128"/>
       <c r="D113" s="128"/>
@@ -5852,7 +5852,7 @@
       <c r="L113" s="128"/>
       <c r="M113" s="128"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="128"/>
       <c r="D114" s="128"/>
@@ -5868,11 +5868,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B253EDE4-FAF9-4C64-95CF-A76E1CDBF0E9}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6C1D7D64-3F51-46BD-AC12-5A2F10C1542E}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{143BC68A-C80A-414B-87D9-9BE2569CA15F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{8DAB8C62-9D43-4F31-AE82-A367F580E041}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{939834DA-AC0E-4CF4-9745-1BA36FAA212E}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{747A173E-4F89-437E-BA0D-5C9579C7062E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E05B9BAD-68AF-4951-9E3F-44266D81D50E}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{5A14FC28-3D66-424E-B28C-9F87CC622563}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6AF5E9F2-F126-468C-BA2F-349DBB6402EB}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{6C50AB77-CAE6-42D3-B13E-1F50589F999F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab01.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E9DE32-CCDF-4475-B3D2-1AC3FF1CBCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB58FA9-FD48-48F2-8E56-157C8EBFE2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E73DA5E7-D2EC-4AA8-A2E1-564CBBB9C8C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F289F7C-4A55-4248-8E42-89CF3E6B85EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="179">
   <si>
     <t>Tableau 1 : Indicateurs de croissance, d’emploi et d’inégalités</t>
   </si>
@@ -471,13 +471,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1705,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6FCE41-9032-4EEE-8270-903566820D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806821CA-A600-4ABA-988B-FD8052D4FDF2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5128,7 +5134,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" s="124">
         <v>107656.124</v>
@@ -5175,7 +5181,7 @@
         <v>37</v>
       </c>
       <c r="B75" s="103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="104">
         <v>73562.936000000002</v>
@@ -5222,7 +5228,7 @@
         <v>37</v>
       </c>
       <c r="B76" s="143" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" s="144">
         <v>685464.09199999995</v>
@@ -5269,7 +5275,7 @@
         <v>37</v>
       </c>
       <c r="B77" s="103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="124">
         <v>439403.06300000002</v>
@@ -5316,7 +5322,7 @@
         <v>37</v>
       </c>
       <c r="B78" s="103" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C78" s="124">
         <v>448922.212</v>
@@ -5363,7 +5369,7 @@
         <v>37</v>
       </c>
       <c r="B79" s="133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C79" s="134">
         <v>1384817.868</v>
@@ -5410,7 +5416,7 @@
         <v>37</v>
       </c>
       <c r="B80" s="103" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C80" s="124">
         <v>134266.21100000001</v>
@@ -5457,7 +5463,7 @@
         <v>37</v>
       </c>
       <c r="B81" s="103" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C81" s="124">
         <v>509668.49099999998</v>
@@ -5504,7 +5510,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C82" s="124">
         <v>1324305.1969999999</v>
@@ -5551,7 +5557,7 @@
         <v>37</v>
       </c>
       <c r="B83" s="103" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C83" s="104">
         <v>6029615.517</v>
@@ -5598,7 +5604,7 @@
         <v>37</v>
       </c>
       <c r="B84" s="143" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C84" s="144">
         <v>596906.55000000005</v>
@@ -5645,7 +5651,7 @@
         <v>37</v>
       </c>
       <c r="B85" s="153" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C85" s="124">
         <v>126077.514</v>
@@ -5692,7 +5698,7 @@
         <v>37</v>
       </c>
       <c r="B86" s="103" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C86" s="124">
         <v>783522.99800000002</v>
@@ -5739,7 +5745,7 @@
         <v>37</v>
       </c>
       <c r="B87" s="103" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C87" s="124">
         <v>2444089.844</v>
@@ -5786,7 +5792,7 @@
         <v>37</v>
       </c>
       <c r="B88" s="103" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C88" s="124">
         <v>78034.2</v>
@@ -5833,7 +5839,7 @@
         <v>37</v>
       </c>
       <c r="B89" s="103" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C89" s="124">
         <v>2723966.1949999998</v>
@@ -5880,7 +5886,7 @@
         <v>37</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C90" s="134">
         <v>1216419.6159999999</v>
@@ -5927,7 +5933,7 @@
         <v>37</v>
       </c>
       <c r="B91" s="103" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C91" s="124">
         <v>776678.89099999995</v>
@@ -5974,7 +5980,7 @@
         <v>37</v>
       </c>
       <c r="B92" s="103" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C92" s="124">
         <v>373667.88299999997</v>
@@ -6021,7 +6027,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="103" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C93" s="124">
         <v>5241.6719999999996</v>
@@ -6068,7 +6074,7 @@
         <v>37</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C94" s="124">
         <v>62684.402999999998</v>
@@ -6115,7 +6121,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="103" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C95" s="124">
         <v>375683.73100000003</v>
@@ -6162,7 +6168,7 @@
         <v>37</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C96" s="104">
         <v>201132.698</v>
@@ -6209,7 +6215,7 @@
         <v>37</v>
       </c>
       <c r="B97" s="143" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C97" s="144">
         <v>864235.26899999997</v>
@@ -6256,7 +6262,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="133" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C98" s="134">
         <v>701591.39199999999</v>
@@ -6317,7 +6323,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C100" s="156"/>
       <c r="D100" s="156"/>
@@ -6335,7 +6341,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C101" s="156"/>
       <c r="D101" s="156"/>
@@ -6353,7 +6359,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C102" s="156"/>
       <c r="D102" s="156"/>
@@ -6371,7 +6377,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C103" s="156"/>
       <c r="D103" s="156"/>
@@ -6389,7 +6395,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C104" s="156"/>
       <c r="D104" s="156"/>
@@ -6407,7 +6413,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C105" s="156"/>
       <c r="D105" s="156"/>
@@ -6440,7 +6446,7 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="157" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C107" s="156"/>
       <c r="D107" s="156"/>
@@ -6474,7 +6480,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C109" s="156"/>
       <c r="D109" s="156"/>
@@ -6492,7 +6498,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C110" s="156"/>
       <c r="D110" s="156"/>
@@ -6510,7 +6516,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="158" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C111" s="156"/>
       <c r="D111" s="156"/>
@@ -6528,7 +6534,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" s="158" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C112" s="156"/>
       <c r="D112" s="156"/>
@@ -6578,11 +6584,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ACFD86DC-9FF6-488D-BB97-4F1BAF519B88}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9A72BEBC-3827-4DED-9B18-D27A77CA77A7}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{B683182C-12A3-426F-AF46-CA8FA539DD0F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F0EB9D05-C39A-4E62-B17A-C9E09C9F81ED}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{37EDD946-5E8B-4B88-9400-1FB9B49FFAB1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{310B6FB4-BE05-41E5-B7CB-133CEC803B7B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{89F47DD4-4F94-410D-9DFD-896B75EC1303}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{761F8708-B4F8-4E80-BC0B-6FEF9E698014}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{FECC3A13-465B-4D1B-91AF-DF15DA6ACF8A}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{0C2A522E-BFDE-47B0-9CC8-FF892B33489E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
